--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Wnt5a-Fzd2.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Wnt5a-Fzd2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -82,16 +82,13 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>Wnt5a</t>
+  </si>
+  <si>
+    <t>Fzd2</t>
+  </si>
+  <si>
     <t>MuSCs</t>
-  </si>
-  <si>
-    <t>Wnt5a</t>
-  </si>
-  <si>
-    <t>Fzd2</t>
-  </si>
-  <si>
-    <t>Inflammatory-Mac</t>
   </si>
   <si>
     <t>Resolving-Mac</t>
@@ -452,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T16"/>
+  <dimension ref="A1:T9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,31 +522,31 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" t="s">
         <v>23</v>
-      </c>
-      <c r="C2" t="s">
-        <v>24</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>0.06488733333333334</v>
+        <v>0.068624</v>
       </c>
       <c r="H2">
-        <v>0.194662</v>
+        <v>0.205872</v>
       </c>
       <c r="I2">
-        <v>0.01118619931635934</v>
+        <v>0.01198115042951486</v>
       </c>
       <c r="J2">
-        <v>0.01123574233808859</v>
+        <v>0.01198115042951486</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.139245</v>
+        <v>0.08425766666666668</v>
       </c>
       <c r="N2">
-        <v>0.417735</v>
+        <v>0.252773</v>
       </c>
       <c r="O2">
-        <v>0.01212793695325064</v>
+        <v>0.007654801123801229</v>
       </c>
       <c r="P2">
-        <v>0.01283499108585158</v>
+        <v>0.008027752567511702</v>
       </c>
       <c r="Q2">
-        <v>0.00903523673</v>
+        <v>0.005782098117333334</v>
       </c>
       <c r="R2">
-        <v>0.08131713056999999</v>
+        <v>0.052038883056</v>
       </c>
       <c r="S2">
-        <v>0.0001356655200553016</v>
+        <v>9.171332377228193E-05</v>
       </c>
       <c r="T2">
-        <v>0.0001442106527522922</v>
+        <v>9.618171112228185E-05</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,31 +584,31 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" t="s">
         <v>23</v>
-      </c>
-      <c r="C3" t="s">
-        <v>24</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>0.06488733333333334</v>
+        <v>0.068624</v>
       </c>
       <c r="H3">
-        <v>0.194662</v>
+        <v>0.205872</v>
       </c>
       <c r="I3">
-        <v>0.01118619931635934</v>
+        <v>0.01198115042951486</v>
       </c>
       <c r="J3">
-        <v>0.01123574233808859</v>
+        <v>0.01198115042951486</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +623,22 @@
         <v>28.142075</v>
       </c>
       <c r="O3">
-        <v>0.8170378621222814</v>
+        <v>0.8522349591772004</v>
       </c>
       <c r="P3">
-        <v>0.8646708601442703</v>
+        <v>0.8937569077249424</v>
       </c>
       <c r="Q3">
-        <v>0.6086880670722223</v>
+        <v>0.6437405849333334</v>
       </c>
       <c r="R3">
-        <v>5.47819260365</v>
+        <v>5.7936652644</v>
       </c>
       <c r="S3">
-        <v>0.009139548374711962</v>
+        <v>0.01021075524719349</v>
       </c>
       <c r="T3">
-        <v>0.009715218991834454</v>
+        <v>0.01070823595887057</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,61 +646,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" t="s">
         <v>23</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
         <v>24</v>
       </c>
-      <c r="D4" t="s">
-        <v>25</v>
-      </c>
       <c r="E4">
+        <v>1</v>
+      </c>
+      <c r="F4">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G4">
+        <v>0.068624</v>
+      </c>
+      <c r="H4">
+        <v>0.205872</v>
+      </c>
+      <c r="I4">
+        <v>0.01198115042951486</v>
+      </c>
+      <c r="J4">
+        <v>0.01198115042951486</v>
+      </c>
+      <c r="K4">
         <v>2</v>
       </c>
-      <c r="F4">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G4">
-        <v>0.06488733333333334</v>
-      </c>
-      <c r="H4">
-        <v>0.194662</v>
-      </c>
-      <c r="I4">
-        <v>0.01118619931635934</v>
-      </c>
-      <c r="J4">
-        <v>0.01123574233808859</v>
-      </c>
-      <c r="K4">
-        <v>1</v>
-      </c>
       <c r="L4">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M4">
-        <v>0.006356333333333333</v>
+        <v>1.534105</v>
       </c>
       <c r="N4">
-        <v>0.019069</v>
+        <v>3.06821</v>
       </c>
       <c r="O4">
-        <v>0.0005536228225107701</v>
+        <v>0.139373295542195</v>
       </c>
       <c r="P4">
-        <v>0.0005858988234553099</v>
+        <v>0.09744249071366434</v>
       </c>
       <c r="Q4">
-        <v>0.0004124455197777778</v>
+        <v>0.10527642152</v>
       </c>
       <c r="R4">
-        <v>0.003712009678</v>
+        <v>0.63165852912</v>
       </c>
       <c r="S4">
-        <v>6.192935238690907E-06</v>
+        <v>0.001669852419748271</v>
       </c>
       <c r="T4">
-        <v>6.583008216533116E-06</v>
+        <v>0.001167473139467017</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,123 +708,123 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" t="s">
         <v>23</v>
       </c>
-      <c r="C5" t="s">
-        <v>24</v>
-      </c>
       <c r="D5" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="E5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F5">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G5">
-        <v>0.06488733333333334</v>
+        <v>0.068624</v>
       </c>
       <c r="H5">
-        <v>0.194662</v>
+        <v>0.205872</v>
       </c>
       <c r="I5">
-        <v>0.01118619931635934</v>
+        <v>0.01198115042951486</v>
       </c>
       <c r="J5">
-        <v>0.01123574233808859</v>
+        <v>0.01198115042951486</v>
       </c>
       <c r="K5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M5">
-        <v>1.897453</v>
+        <v>0.008111666666666666</v>
       </c>
       <c r="N5">
-        <v>3.794906</v>
+        <v>0.024335</v>
       </c>
       <c r="O5">
-        <v>0.1652640335793479</v>
+        <v>0.0007369441568035466</v>
       </c>
       <c r="P5">
-        <v>0.1165992427774658</v>
+        <v>0.0007728489938814559</v>
       </c>
       <c r="Q5">
-        <v>0.1231206652953333</v>
+        <v>0.0005566550133333333</v>
       </c>
       <c r="R5">
-        <v>0.738723991772</v>
+        <v>0.00500989512</v>
       </c>
       <c r="S5">
-        <v>0.001848676419444089</v>
+        <v>8.82943880081528E-06</v>
       </c>
       <c r="T5">
-        <v>0.001310079048663843</v>
+        <v>9.259620054992933E-06</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D6" t="s">
         <v>20</v>
       </c>
-      <c r="B6" t="s">
-        <v>23</v>
-      </c>
-      <c r="C6" t="s">
-        <v>24</v>
-      </c>
-      <c r="D6" t="s">
-        <v>26</v>
-      </c>
       <c r="E6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F6">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G6">
-        <v>0.06488733333333334</v>
+        <v>5.659039666666668</v>
       </c>
       <c r="H6">
-        <v>0.194662</v>
+        <v>16.977119</v>
       </c>
       <c r="I6">
-        <v>0.01118619931635934</v>
+        <v>0.9880188495704851</v>
       </c>
       <c r="J6">
-        <v>0.01123574233808859</v>
+        <v>0.9880188495704851</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M6">
-        <v>0.05759666666666666</v>
+        <v>0.08425766666666668</v>
       </c>
       <c r="N6">
-        <v>0.17279</v>
+        <v>0.252773</v>
       </c>
       <c r="O6">
-        <v>0.005016544522609259</v>
+        <v>0.007654801123801229</v>
       </c>
       <c r="P6">
-        <v>0.005309007168957103</v>
+        <v>0.008027752567511702</v>
       </c>
       <c r="Q6">
-        <v>0.003737294108888889</v>
+        <v>0.4768174778874446</v>
       </c>
       <c r="R6">
-        <v>0.03363564698</v>
+        <v>4.291357300987001</v>
       </c>
       <c r="S6">
-        <v>5.61160669092979E-05</v>
+        <v>0.007563087800028947</v>
       </c>
       <c r="T6">
-        <v>5.965063662146716E-05</v>
+        <v>0.00793157085638942</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -835,13 +832,13 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" t="s">
         <v>23</v>
       </c>
-      <c r="C7" t="s">
-        <v>24</v>
-      </c>
       <c r="D7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E7">
         <v>3</v>
@@ -856,10 +853,10 @@
         <v>16.977119</v>
       </c>
       <c r="I7">
-        <v>0.9755855634461335</v>
+        <v>0.9880188495704851</v>
       </c>
       <c r="J7">
-        <v>0.9799063747781704</v>
+        <v>0.9880188495704851</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +865,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.139245</v>
+        <v>9.380691666666667</v>
       </c>
       <c r="N7">
-        <v>0.417735</v>
+        <v>28.142075</v>
       </c>
       <c r="O7">
-        <v>0.01212793695325064</v>
+        <v>0.8522349591772004</v>
       </c>
       <c r="P7">
-        <v>0.01283499108585158</v>
+        <v>0.8937569077249424</v>
       </c>
       <c r="Q7">
-        <v>0.787992978385</v>
+        <v>53.08570624243612</v>
       </c>
       <c r="R7">
-        <v>7.091936805465</v>
+        <v>477.7713561819251</v>
       </c>
       <c r="S7">
-        <v>0.01183184020597621</v>
+        <v>0.8420242039300069</v>
       </c>
       <c r="T7">
-        <v>0.01257708958524696</v>
+        <v>0.8830486717660718</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -897,13 +894,13 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" t="s">
         <v>23</v>
       </c>
-      <c r="C8" t="s">
+      <c r="D8" t="s">
         <v>24</v>
-      </c>
-      <c r="D8" t="s">
-        <v>21</v>
       </c>
       <c r="E8">
         <v>3</v>
@@ -918,40 +915,40 @@
         <v>16.977119</v>
       </c>
       <c r="I8">
-        <v>0.9755855634461335</v>
+        <v>0.9880188495704851</v>
       </c>
       <c r="J8">
-        <v>0.9799063747781704</v>
+        <v>0.9880188495704851</v>
       </c>
       <c r="K8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>9.380691666666667</v>
+        <v>1.534105</v>
       </c>
       <c r="N8">
-        <v>28.142075</v>
+        <v>3.06821</v>
       </c>
       <c r="O8">
-        <v>0.8170378621222814</v>
+        <v>0.139373295542195</v>
       </c>
       <c r="P8">
-        <v>0.8646708601442703</v>
+        <v>0.09744249071366434</v>
       </c>
       <c r="Q8">
-        <v>53.08570624243612</v>
+        <v>8.681561047831668</v>
       </c>
       <c r="R8">
-        <v>477.7713561819251</v>
+        <v>52.08936628699001</v>
       </c>
       <c r="S8">
-        <v>0.7970903430753902</v>
+        <v>0.1377034431224467</v>
       </c>
       <c r="T8">
-        <v>0.8472964879402943</v>
+        <v>0.09627501757419732</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -959,10 +956,10 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" t="s">
         <v>23</v>
-      </c>
-      <c r="C9" t="s">
-        <v>24</v>
       </c>
       <c r="D9" t="s">
         <v>25</v>
@@ -980,10 +977,10 @@
         <v>16.977119</v>
       </c>
       <c r="I9">
-        <v>0.9755855634461335</v>
+        <v>0.9880188495704851</v>
       </c>
       <c r="J9">
-        <v>0.9799063747781704</v>
+        <v>0.9880188495704851</v>
       </c>
       <c r="K9">
         <v>1</v>
@@ -992,462 +989,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M9">
-        <v>0.006356333333333333</v>
+        <v>0.008111666666666666</v>
       </c>
       <c r="N9">
-        <v>0.019069</v>
+        <v>0.024335</v>
       </c>
       <c r="O9">
-        <v>0.0005536228225107701</v>
+        <v>0.0007369441568035466</v>
       </c>
       <c r="P9">
-        <v>0.0005858988234553099</v>
+        <v>0.0007728489938814559</v>
       </c>
       <c r="Q9">
-        <v>0.03597074246788889</v>
+        <v>0.04590424342944445</v>
       </c>
       <c r="R9">
-        <v>0.323736682211</v>
+        <v>0.413138190865</v>
       </c>
       <c r="S9">
-        <v>0.0005401064332358084</v>
+        <v>0.0007281147180027314</v>
       </c>
       <c r="T9">
-        <v>0.000574125992078888</v>
-      </c>
-    </row>
-    <row r="10" spans="1:20">
-      <c r="A10" t="s">
-        <v>21</v>
-      </c>
-      <c r="B10" t="s">
-        <v>23</v>
-      </c>
-      <c r="C10" t="s">
-        <v>24</v>
-      </c>
-      <c r="D10" t="s">
-        <v>22</v>
-      </c>
-      <c r="E10">
-        <v>3</v>
-      </c>
-      <c r="F10">
-        <v>1</v>
-      </c>
-      <c r="G10">
-        <v>5.659039666666668</v>
-      </c>
-      <c r="H10">
-        <v>16.977119</v>
-      </c>
-      <c r="I10">
-        <v>0.9755855634461335</v>
-      </c>
-      <c r="J10">
-        <v>0.9799063747781704</v>
-      </c>
-      <c r="K10">
-        <v>2</v>
-      </c>
-      <c r="L10">
-        <v>1</v>
-      </c>
-      <c r="M10">
-        <v>1.897453</v>
-      </c>
-      <c r="N10">
-        <v>3.794906</v>
-      </c>
-      <c r="O10">
-        <v>0.1652640335793479</v>
-      </c>
-      <c r="P10">
-        <v>0.1165992427774658</v>
-      </c>
-      <c r="Q10">
-        <v>10.73776179263567</v>
-      </c>
-      <c r="R10">
-        <v>64.42657075581401</v>
-      </c>
-      <c r="S10">
-        <v>0.1612292053168888</v>
-      </c>
-      <c r="T10">
-        <v>0.1142563412919463</v>
-      </c>
-    </row>
-    <row r="11" spans="1:20">
-      <c r="A11" t="s">
-        <v>21</v>
-      </c>
-      <c r="B11" t="s">
-        <v>23</v>
-      </c>
-      <c r="C11" t="s">
-        <v>24</v>
-      </c>
-      <c r="D11" t="s">
-        <v>26</v>
-      </c>
-      <c r="E11">
-        <v>3</v>
-      </c>
-      <c r="F11">
-        <v>1</v>
-      </c>
-      <c r="G11">
-        <v>5.659039666666668</v>
-      </c>
-      <c r="H11">
-        <v>16.977119</v>
-      </c>
-      <c r="I11">
-        <v>0.9755855634461335</v>
-      </c>
-      <c r="J11">
-        <v>0.9799063747781704</v>
-      </c>
-      <c r="K11">
-        <v>1</v>
-      </c>
-      <c r="L11">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M11">
-        <v>0.05759666666666666</v>
-      </c>
-      <c r="N11">
-        <v>0.17279</v>
-      </c>
-      <c r="O11">
-        <v>0.005016544522609259</v>
-      </c>
-      <c r="P11">
-        <v>0.005309007168957103</v>
-      </c>
-      <c r="Q11">
-        <v>0.3259418213344445</v>
-      </c>
-      <c r="R11">
-        <v>2.93347639201</v>
-      </c>
-      <c r="S11">
-        <v>0.004894068414642369</v>
-      </c>
-      <c r="T11">
-        <v>0.005202329968604072</v>
-      </c>
-    </row>
-    <row r="12" spans="1:20">
-      <c r="A12" t="s">
-        <v>22</v>
-      </c>
-      <c r="B12" t="s">
-        <v>23</v>
-      </c>
-      <c r="C12" t="s">
-        <v>24</v>
-      </c>
-      <c r="D12" t="s">
-        <v>20</v>
-      </c>
-      <c r="E12">
-        <v>1</v>
-      </c>
-      <c r="F12">
-        <v>0.5</v>
-      </c>
-      <c r="G12">
-        <v>0.07673250000000001</v>
-      </c>
-      <c r="H12">
-        <v>0.153465</v>
-      </c>
-      <c r="I12">
-        <v>0.01322823723750722</v>
-      </c>
-      <c r="J12">
-        <v>0.008857882883740871</v>
-      </c>
-      <c r="K12">
-        <v>3</v>
-      </c>
-      <c r="L12">
-        <v>1</v>
-      </c>
-      <c r="M12">
-        <v>0.139245</v>
-      </c>
-      <c r="N12">
-        <v>0.417735</v>
-      </c>
-      <c r="O12">
-        <v>0.01212793695325064</v>
-      </c>
-      <c r="P12">
-        <v>0.01283499108585158</v>
-      </c>
-      <c r="Q12">
-        <v>0.0106846169625</v>
-      </c>
-      <c r="R12">
-        <v>0.064107701775</v>
-      </c>
-      <c r="S12">
-        <v>0.00016043122721913</v>
-      </c>
-      <c r="T12">
-        <v>0.0001136908478523314</v>
-      </c>
-    </row>
-    <row r="13" spans="1:20">
-      <c r="A13" t="s">
-        <v>22</v>
-      </c>
-      <c r="B13" t="s">
-        <v>23</v>
-      </c>
-      <c r="C13" t="s">
-        <v>24</v>
-      </c>
-      <c r="D13" t="s">
-        <v>21</v>
-      </c>
-      <c r="E13">
-        <v>1</v>
-      </c>
-      <c r="F13">
-        <v>0.5</v>
-      </c>
-      <c r="G13">
-        <v>0.07673250000000001</v>
-      </c>
-      <c r="H13">
-        <v>0.153465</v>
-      </c>
-      <c r="I13">
-        <v>0.01322823723750722</v>
-      </c>
-      <c r="J13">
-        <v>0.008857882883740871</v>
-      </c>
-      <c r="K13">
-        <v>3</v>
-      </c>
-      <c r="L13">
-        <v>1</v>
-      </c>
-      <c r="M13">
-        <v>9.380691666666667</v>
-      </c>
-      <c r="N13">
-        <v>28.142075</v>
-      </c>
-      <c r="O13">
-        <v>0.8170378621222814</v>
-      </c>
-      <c r="P13">
-        <v>0.8646708601442703</v>
-      </c>
-      <c r="Q13">
-        <v>0.7198039233125001</v>
-      </c>
-      <c r="R13">
-        <v>4.318823539875001</v>
-      </c>
-      <c r="S13">
-        <v>0.01080797067217925</v>
-      </c>
-      <c r="T13">
-        <v>0.007659153212141429</v>
-      </c>
-    </row>
-    <row r="14" spans="1:20">
-      <c r="A14" t="s">
-        <v>22</v>
-      </c>
-      <c r="B14" t="s">
-        <v>23</v>
-      </c>
-      <c r="C14" t="s">
-        <v>24</v>
-      </c>
-      <c r="D14" t="s">
-        <v>25</v>
-      </c>
-      <c r="E14">
-        <v>1</v>
-      </c>
-      <c r="F14">
-        <v>0.5</v>
-      </c>
-      <c r="G14">
-        <v>0.07673250000000001</v>
-      </c>
-      <c r="H14">
-        <v>0.153465</v>
-      </c>
-      <c r="I14">
-        <v>0.01322823723750722</v>
-      </c>
-      <c r="J14">
-        <v>0.008857882883740871</v>
-      </c>
-      <c r="K14">
-        <v>1</v>
-      </c>
-      <c r="L14">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M14">
-        <v>0.006356333333333333</v>
-      </c>
-      <c r="N14">
-        <v>0.019069</v>
-      </c>
-      <c r="O14">
-        <v>0.0005536228225107701</v>
-      </c>
-      <c r="P14">
-        <v>0.0005858988234553099</v>
-      </c>
-      <c r="Q14">
-        <v>0.0004877373475</v>
-      </c>
-      <c r="R14">
-        <v>0.002926424085</v>
-      </c>
-      <c r="S14">
-        <v>7.323454036270818E-06</v>
-      </c>
-      <c r="T14">
-        <v>5.189823159888704E-06</v>
-      </c>
-    </row>
-    <row r="15" spans="1:20">
-      <c r="A15" t="s">
-        <v>22</v>
-      </c>
-      <c r="B15" t="s">
-        <v>23</v>
-      </c>
-      <c r="C15" t="s">
-        <v>24</v>
-      </c>
-      <c r="D15" t="s">
-        <v>22</v>
-      </c>
-      <c r="E15">
-        <v>1</v>
-      </c>
-      <c r="F15">
-        <v>0.5</v>
-      </c>
-      <c r="G15">
-        <v>0.07673250000000001</v>
-      </c>
-      <c r="H15">
-        <v>0.153465</v>
-      </c>
-      <c r="I15">
-        <v>0.01322823723750722</v>
-      </c>
-      <c r="J15">
-        <v>0.008857882883740871</v>
-      </c>
-      <c r="K15">
-        <v>2</v>
-      </c>
-      <c r="L15">
-        <v>1</v>
-      </c>
-      <c r="M15">
-        <v>1.897453</v>
-      </c>
-      <c r="N15">
-        <v>3.794906</v>
-      </c>
-      <c r="O15">
-        <v>0.1652640335793479</v>
-      </c>
-      <c r="P15">
-        <v>0.1165992427774658</v>
-      </c>
-      <c r="Q15">
-        <v>0.1455963123225</v>
-      </c>
-      <c r="R15">
-        <v>0.5823852492900001</v>
-      </c>
-      <c r="S15">
-        <v>0.002186151843014973</v>
-      </c>
-      <c r="T15">
-        <v>0.001032822436855661</v>
-      </c>
-    </row>
-    <row r="16" spans="1:20">
-      <c r="A16" t="s">
-        <v>22</v>
-      </c>
-      <c r="B16" t="s">
-        <v>23</v>
-      </c>
-      <c r="C16" t="s">
-        <v>24</v>
-      </c>
-      <c r="D16" t="s">
-        <v>26</v>
-      </c>
-      <c r="E16">
-        <v>1</v>
-      </c>
-      <c r="F16">
-        <v>0.5</v>
-      </c>
-      <c r="G16">
-        <v>0.07673250000000001</v>
-      </c>
-      <c r="H16">
-        <v>0.153465</v>
-      </c>
-      <c r="I16">
-        <v>0.01322823723750722</v>
-      </c>
-      <c r="J16">
-        <v>0.008857882883740871</v>
-      </c>
-      <c r="K16">
-        <v>1</v>
-      </c>
-      <c r="L16">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M16">
-        <v>0.05759666666666666</v>
-      </c>
-      <c r="N16">
-        <v>0.17279</v>
-      </c>
-      <c r="O16">
-        <v>0.005016544522609259</v>
-      </c>
-      <c r="P16">
-        <v>0.005309007168957103</v>
-      </c>
-      <c r="Q16">
-        <v>0.004419536225</v>
-      </c>
-      <c r="R16">
-        <v>0.02651721735</v>
-      </c>
-      <c r="S16">
-        <v>6.636004105759266E-05</v>
-      </c>
-      <c r="T16">
-        <v>4.70265637315627E-05</v>
+        <v>0.0007635893738264629</v>
       </c>
     </row>
   </sheetData>
